--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.436192333333334</v>
+        <v>5.530908</v>
       </c>
       <c r="H2">
-        <v>7.308577000000001</v>
+        <v>16.592724</v>
       </c>
       <c r="I2">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603573</v>
       </c>
       <c r="J2">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603574</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N2">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P2">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q2">
-        <v>105.4413674086081</v>
+        <v>395.690516616336</v>
       </c>
       <c r="R2">
-        <v>948.9723066774728</v>
+        <v>3561.214649547024</v>
       </c>
       <c r="S2">
-        <v>0.01633421381626263</v>
+        <v>0.03845137982223129</v>
       </c>
       <c r="T2">
-        <v>0.01633421381626262</v>
+        <v>0.0384513798222313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.436192333333334</v>
+        <v>5.530908</v>
       </c>
       <c r="H3">
-        <v>7.308577000000001</v>
+        <v>16.592724</v>
       </c>
       <c r="I3">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603573</v>
       </c>
       <c r="J3">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.595114</v>
       </c>
       <c r="O3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P3">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q3">
-        <v>24.033129943642</v>
+        <v>54.562617594504</v>
       </c>
       <c r="R3">
-        <v>216.298169492778</v>
+        <v>491.063558350536</v>
       </c>
       <c r="S3">
-        <v>0.003723038621570683</v>
+        <v>0.005302143582216996</v>
       </c>
       <c r="T3">
-        <v>0.003723038621570682</v>
+        <v>0.005302143582216997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.436192333333334</v>
+        <v>5.530908</v>
       </c>
       <c r="H4">
-        <v>7.308577000000001</v>
+        <v>16.592724</v>
       </c>
       <c r="I4">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603573</v>
       </c>
       <c r="J4">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N4">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O4">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P4">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q4">
-        <v>64.51718214423833</v>
+        <v>193.90452691816</v>
       </c>
       <c r="R4">
-        <v>580.6546392981451</v>
+        <v>1745.14074226344</v>
       </c>
       <c r="S4">
-        <v>0.009994535103882922</v>
+        <v>0.01884274780588064</v>
       </c>
       <c r="T4">
-        <v>0.00999453510388292</v>
+        <v>0.01884274780588065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.436192333333334</v>
+        <v>5.530908</v>
       </c>
       <c r="H5">
-        <v>7.308577000000001</v>
+        <v>16.592724</v>
       </c>
       <c r="I5">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603573</v>
       </c>
       <c r="J5">
-        <v>0.03060279702221278</v>
+        <v>0.06269514438603574</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N5">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P5">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q5">
-        <v>3.556901711475</v>
+        <v>1.017471366588</v>
       </c>
       <c r="R5">
-        <v>32.012115403275</v>
+        <v>9.157242299292001</v>
       </c>
       <c r="S5">
-        <v>0.0005510094804965512</v>
+        <v>9.887317570679615E-05</v>
       </c>
       <c r="T5">
-        <v>0.0005510094804965511</v>
+        <v>9.887317570679616E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>179.007026</v>
       </c>
       <c r="I6">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J6">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N6">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P6">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q6">
-        <v>2582.547272497541</v>
+        <v>4268.821839975997</v>
       </c>
       <c r="R6">
-        <v>23242.92545247787</v>
+        <v>38419.39655978397</v>
       </c>
       <c r="S6">
-        <v>0.4000695398430205</v>
+        <v>0.414824422293412</v>
       </c>
       <c r="T6">
-        <v>0.4000695398430204</v>
+        <v>0.414824422293412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>179.007026</v>
       </c>
       <c r="I7">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J7">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.595114</v>
       </c>
       <c r="O7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P7">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q7">
         <v>588.6370379189959</v>
@@ -883,10 +883,10 @@
         <v>5297.733341270964</v>
       </c>
       <c r="S7">
-        <v>0.09118739138008772</v>
+        <v>0.05720103305989125</v>
       </c>
       <c r="T7">
-        <v>0.0911873913800877</v>
+        <v>0.05720103305989126</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>179.007026</v>
       </c>
       <c r="I8">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J8">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N8">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O8">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P8">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q8">
-        <v>1580.202124372556</v>
+        <v>2091.897188885729</v>
       </c>
       <c r="R8">
-        <v>14221.81911935301</v>
+        <v>18827.07469997156</v>
       </c>
       <c r="S8">
-        <v>0.2447934810290269</v>
+        <v>0.2032809227947575</v>
       </c>
       <c r="T8">
-        <v>0.244793481029027</v>
+        <v>0.2032809227947575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>179.007026</v>
       </c>
       <c r="I9">
-        <v>0.7495461404084497</v>
+        <v>0.6763730500901992</v>
       </c>
       <c r="J9">
-        <v>0.7495461404084496</v>
+        <v>0.6763730500901993</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N9">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P9">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q9">
-        <v>87.11824437854999</v>
+        <v>10.97677050332867</v>
       </c>
       <c r="R9">
-        <v>784.0641994069499</v>
+        <v>98.79093452995799</v>
       </c>
       <c r="S9">
-        <v>0.01349572815631451</v>
+        <v>0.001066671942138556</v>
       </c>
       <c r="T9">
-        <v>0.01349572815631451</v>
+        <v>0.001066671942138556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H10">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I10">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J10">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N10">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O10">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P10">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q10">
-        <v>755.8148890620495</v>
+        <v>1646.605276225378</v>
       </c>
       <c r="R10">
-        <v>6802.334001558444</v>
+        <v>14819.4474860284</v>
       </c>
       <c r="S10">
-        <v>0.1170853746197382</v>
+        <v>0.1600095080237214</v>
       </c>
       <c r="T10">
-        <v>0.1170853746197382</v>
+        <v>0.1600095080237214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H11">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I11">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J11">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.595114</v>
       </c>
       <c r="O11">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P11">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q11">
-        <v>172.272020826284</v>
+        <v>227.053948080566</v>
       </c>
       <c r="R11">
-        <v>1550.448187436556</v>
+        <v>2043.485532725094</v>
       </c>
       <c r="S11">
-        <v>0.02668713515286265</v>
+        <v>0.02206405569797422</v>
       </c>
       <c r="T11">
-        <v>0.02668713515286264</v>
+        <v>0.02206405569797422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H12">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I12">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J12">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N12">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O12">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P12">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q12">
-        <v>462.4659947359767</v>
+        <v>806.9038900343623</v>
       </c>
       <c r="R12">
-        <v>4162.19395262379</v>
+        <v>7262.135010309261</v>
       </c>
       <c r="S12">
-        <v>0.07164188616308981</v>
+        <v>0.07841119929045653</v>
       </c>
       <c r="T12">
-        <v>0.07164188616308979</v>
+        <v>0.07841119929045653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.46288466666667</v>
+        <v>23.01602366666667</v>
       </c>
       <c r="H13">
-        <v>52.388654</v>
+        <v>69.04807100000001</v>
       </c>
       <c r="I13">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="J13">
-        <v>0.2193640902502547</v>
+        <v>0.2608962085382874</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N13">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O13">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P13">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q13">
-        <v>25.49624818545</v>
+        <v>4.234050729743667</v>
       </c>
       <c r="R13">
-        <v>229.46623366905</v>
+        <v>38.106456567693</v>
       </c>
       <c r="S13">
-        <v>0.003949694314564048</v>
+        <v>0.0004114455261353311</v>
       </c>
       <c r="T13">
-        <v>0.003949694314564048</v>
+        <v>0.0004114455261353311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H14">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I14">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J14">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.28121633333333</v>
+        <v>71.541692</v>
       </c>
       <c r="N14">
-        <v>129.843649</v>
+        <v>214.625076</v>
       </c>
       <c r="O14">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="P14">
-        <v>0.5337490492913629</v>
+        <v>0.6133071420247926</v>
       </c>
       <c r="Q14">
-        <v>1.677854059450111</v>
+        <v>0.2246647601106667</v>
       </c>
       <c r="R14">
-        <v>15.100686535051</v>
+        <v>2.021982840996</v>
       </c>
       <c r="S14">
-        <v>0.0002599210123417358</v>
+        <v>2.183188542792859E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002599210123417358</v>
+        <v>2.18318854279286E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H15">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I15">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J15">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.595114</v>
       </c>
       <c r="O15">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="P15">
-        <v>0.1216568086527629</v>
+        <v>0.08457024278578675</v>
       </c>
       <c r="Q15">
-        <v>0.382431351454</v>
+        <v>0.030979507666</v>
       </c>
       <c r="R15">
-        <v>3.441882163086</v>
+        <v>0.278815568994</v>
       </c>
       <c r="S15">
-        <v>5.924349824186689E-05</v>
+        <v>3.01044570427775E-06</v>
       </c>
       <c r="T15">
-        <v>5.924349824186689E-05</v>
+        <v>3.01044570427775E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H16">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I16">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J16">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.482795</v>
+        <v>35.05835333333334</v>
       </c>
       <c r="N16">
-        <v>79.448385</v>
+        <v>105.17506</v>
       </c>
       <c r="O16">
-        <v>0.3265889420705065</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="P16">
-        <v>0.3265889420705066</v>
+        <v>0.3005455684073286</v>
       </c>
       <c r="Q16">
-        <v>1.026640858568333</v>
+        <v>0.1100949155844445</v>
       </c>
       <c r="R16">
-        <v>9.239767727115</v>
+        <v>0.9908542402600001</v>
       </c>
       <c r="S16">
-        <v>0.0001590397745069224</v>
+        <v>1.069851623393492E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001590397745069224</v>
+        <v>1.069851623393492E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03876633333333333</v>
+        <v>0.003140333333333334</v>
       </c>
       <c r="H17">
-        <v>0.116299</v>
+        <v>0.009421000000000001</v>
       </c>
       <c r="I17">
-        <v>0.000486972319082952</v>
+        <v>3.559698547754079E-05</v>
       </c>
       <c r="J17">
-        <v>0.000486972319082952</v>
+        <v>3.55969854775408E-05</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.460025</v>
+        <v>0.183961</v>
       </c>
       <c r="N17">
-        <v>4.380075</v>
+        <v>0.551883</v>
       </c>
       <c r="O17">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="P17">
-        <v>0.01800519998536753</v>
+        <v>0.001577046782092083</v>
       </c>
       <c r="Q17">
-        <v>0.056599815825</v>
+        <v>0.0005776988603333334</v>
       </c>
       <c r="R17">
-        <v>0.5093983424249999</v>
+        <v>0.005199289743</v>
       </c>
       <c r="S17">
-        <v>8.768033992426759E-06</v>
+        <v>5.613811139953431E-08</v>
       </c>
       <c r="T17">
-        <v>8.768033992426761E-06</v>
+        <v>5.613811139953432E-08</v>
       </c>
     </row>
   </sheetData>
